--- a/SeatSelection.js explanation.xlsx
+++ b/SeatSelection.js explanation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukiramu\Desktop\CICCC\WebDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukiramu\Desktop\CICCC\WebDev\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B1D99-E230-4E1A-996D-D6EF5719AECB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D555E6-6755-40C9-A5F0-00E949FB9A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{178FCE94-B5CC-44DF-B574-F3F08F39E3E2}"/>
   </bookViews>
@@ -1365,13 +1365,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>269873</xdr:colOff>
+      <xdr:colOff>269874</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1388,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5146673" y="6959600"/>
-          <a:ext cx="5988051" cy="327025"/>
+          <a:off x="5146674" y="7000875"/>
+          <a:ext cx="5969002" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,16 +2084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2108,8 +2108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="12911166">
-          <a:off x="4149725" y="15760700"/>
-          <a:ext cx="590550" cy="355600"/>
+          <a:off x="14246225" y="16592550"/>
+          <a:ext cx="590550" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E2F4AC-B1A7-4225-82A0-571D2BD01850}">
   <dimension ref="B2:N131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
